--- a/data/Settings.xlsx
+++ b/data/Settings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="231">
   <si>
     <t>token</t>
   </si>
@@ -724,7 +724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -783,8 +783,83 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="313">
+  <fills count="1003">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2566,6 +2641,3916 @@
       <patternFill patternType="solid">
         <fgColor rgb="B19DEA"/>
         <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="7030A0"/>
+        <bgColor rgb="7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD025"/>
+        <bgColor rgb="ADD025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD050"/>
+        <bgColor rgb="ADD050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD075"/>
+        <bgColor rgb="ADD075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD100"/>
+        <bgColor rgb="ADD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD125"/>
+        <bgColor rgb="ADD125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD150"/>
+        <bgColor rgb="ADD150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD175"/>
+        <bgColor rgb="ADD175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD200"/>
+        <bgColor rgb="ADD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD225"/>
+        <bgColor rgb="ADD225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD250"/>
+        <bgColor rgb="ADD250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD275"/>
+        <bgColor rgb="ADD275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD300"/>
+        <bgColor rgb="ADD300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD325"/>
+        <bgColor rgb="ADD325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD350"/>
+        <bgColor rgb="ADD350"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD375"/>
+        <bgColor rgb="ADD375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD400"/>
+        <bgColor rgb="ADD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD425"/>
+        <bgColor rgb="ADD425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD450"/>
+        <bgColor rgb="ADD450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD475"/>
+        <bgColor rgb="ADD475"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD500"/>
+        <bgColor rgb="ADD500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD525"/>
+        <bgColor rgb="ADD525"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD550"/>
+        <bgColor rgb="ADD550"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD575"/>
+        <bgColor rgb="ADD575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="27C62F"/>
+        <bgColor rgb="27C62F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB025"/>
+        <bgColor rgb="9DB025"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB050"/>
+        <bgColor rgb="9DB050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB075"/>
+        <bgColor rgb="9DB075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB100"/>
+        <bgColor rgb="9DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB125"/>
+        <bgColor rgb="9DB125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB150"/>
+        <bgColor rgb="9DB150"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB175"/>
+        <bgColor rgb="9DB175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB200"/>
+        <bgColor rgb="9DB200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB225"/>
+        <bgColor rgb="9DB225"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB250"/>
+        <bgColor rgb="9DB250"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB275"/>
+        <bgColor rgb="9DB275"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9DB300"/>
+        <bgColor rgb="9DB300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADE4F7"/>
+        <bgColor rgb="ADE4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B4"/>
+        <bgColor rgb="FF93B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="808CED"/>
+        <bgColor rgb="808CED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C92E3D"/>
+        <bgColor rgb="C92E3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="94AADD"/>
+        <bgColor rgb="94AADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B19DEA"/>
+        <bgColor rgb="B19DEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
+        <bgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333333"/>
+        <bgColor rgb="333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="555555"/>
+        <bgColor rgb="555555"/>
       </patternFill>
     </fill>
   </fills>
@@ -2581,7 +6566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="1049">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2940,6 +6925,701 @@
     <xf numFmtId="0" fontId="0" fillId="309" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="312" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="318" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="324" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="330" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="336" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="342" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="345" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="348" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="351" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="354" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="357" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="360" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="363" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="366" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="369" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="372" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="378" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="387" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="393" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="396" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="399" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="402" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="405" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="408" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="414" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="417" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="420" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="423" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="426" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="429" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="432" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="435" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="438" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="441" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="444" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="450" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="453" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="456" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="459" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="462" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="465" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="468" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="471" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="474" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="477" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="480" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="483" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="486" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="489" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="492" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="495" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="498" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="501" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="504" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="507" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="510" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="513" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="516" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="519" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="522" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="525" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="528" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="531" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="534" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="537" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="540" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="543" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="546" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="549" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="552" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="555" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="558" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="564" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="567" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="570" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="573" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="576" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="579" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="582" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="588" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="591" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="594" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="597" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="600" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="603" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="606" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="609" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="612" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="615" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="618" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="621" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="624" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="627" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="630" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="633" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="636" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="639" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="642" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="645" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="648" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="651" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="654" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="657" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="660" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="663" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="666" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="669" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="672" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="675" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="678" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="681" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="684" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="687" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="690" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="693" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="696" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="699" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="702" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="705" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="708" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="711" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="714" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="717" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="720" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="723" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="723" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="726" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="729" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="732" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="735" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="738" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="741" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="744" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="747" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="750" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="753" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="756" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="759" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="762" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="765" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="768" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="771" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="774" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="777" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="780" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="783" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="786" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="789" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="792" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="795" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="798" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="801" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="804" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="807" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="810" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="813" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="816" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="819" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="822" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="825" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="828" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="831" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="834" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="837" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="840" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="843" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="846" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="849" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="852" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="855" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="858" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="861" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="861" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="864" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="867" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="870" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="873" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="876" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="879" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="882" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="885" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="888" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="891" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="894" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="897" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="900" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="903" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="906" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="909" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="912" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="915" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="918" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="921" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="924" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="927" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="930" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="933" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="936" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="939" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="942" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="945" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="948" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="951" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="954" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="957" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="960" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="963" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="966" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="969" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="972" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="975" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="978" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="981" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="984" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="987" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="990" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="993" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="996" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="999" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="999" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1002" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3510,7 +8190,7 @@
       <c r="C2" t="s">
         <v>123</v>
       </c>
-      <c r="D2" t="s" s="269">
+      <c r="D2" t="s" s="911">
         <v>167</v>
       </c>
     </row>
@@ -3524,7 +8204,7 @@
       <c r="C3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s" s="271">
+      <c r="D3" t="s" s="913">
         <v>178</v>
       </c>
     </row>
@@ -3538,7 +8218,7 @@
       <c r="C4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s" s="273">
+      <c r="D4" t="s" s="915">
         <v>179</v>
       </c>
     </row>
@@ -3552,7 +8232,7 @@
       <c r="C5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D5" t="s" s="275">
+      <c r="D5" t="s" s="917">
         <v>180</v>
       </c>
     </row>
@@ -3566,7 +8246,7 @@
       <c r="C6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D6" t="s" s="277">
+      <c r="D6" t="s" s="919">
         <v>168</v>
       </c>
     </row>
@@ -3580,7 +8260,7 @@
       <c r="C7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D7" t="s" s="279">
+      <c r="D7" t="s" s="921">
         <v>181</v>
       </c>
     </row>
@@ -3594,7 +8274,7 @@
       <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D8" t="s" s="281">
+      <c r="D8" t="s" s="923">
         <v>169</v>
       </c>
     </row>
@@ -3608,7 +8288,7 @@
       <c r="C9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s" s="283">
+      <c r="D9" t="s" s="925">
         <v>182</v>
       </c>
     </row>
@@ -3622,7 +8302,7 @@
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" t="s" s="285">
+      <c r="D10" t="s" s="927">
         <v>170</v>
       </c>
     </row>
@@ -3636,7 +8316,7 @@
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" t="s" s="287">
+      <c r="D11" t="s" s="929">
         <v>183</v>
       </c>
     </row>
@@ -3650,7 +8330,7 @@
       <c r="C12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D12" t="s" s="289">
+      <c r="D12" t="s" s="931">
         <v>171</v>
       </c>
     </row>
@@ -3664,7 +8344,7 @@
       <c r="C13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D13" t="s" s="291">
+      <c r="D13" t="s" s="933">
         <v>184</v>
       </c>
     </row>
@@ -3678,7 +8358,7 @@
       <c r="C14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D14" t="s" s="293">
+      <c r="D14" t="s" s="935">
         <v>172</v>
       </c>
     </row>
@@ -3692,7 +8372,7 @@
       <c r="C15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D15" t="s" s="295">
+      <c r="D15" t="s" s="937">
         <v>185</v>
       </c>
     </row>
@@ -3706,7 +8386,7 @@
       <c r="C16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D16" t="s" s="297">
+      <c r="D16" t="s" s="939">
         <v>173</v>
       </c>
     </row>
@@ -3720,7 +8400,7 @@
       <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s" s="299">
+      <c r="D17" t="s" s="941">
         <v>186</v>
       </c>
     </row>
@@ -3734,7 +8414,7 @@
       <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D18" t="s" s="301">
+      <c r="D18" t="s" s="943">
         <v>174</v>
       </c>
     </row>
@@ -3748,7 +8428,7 @@
       <c r="C19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D19" t="s" s="303">
+      <c r="D19" t="s" s="945">
         <v>187</v>
       </c>
     </row>
@@ -3762,7 +8442,7 @@
       <c r="C20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s" s="305">
+      <c r="D20" t="s" s="947">
         <v>175</v>
       </c>
     </row>
@@ -3776,7 +8456,7 @@
       <c r="C21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D21" t="s" s="307">
+      <c r="D21" t="s" s="949">
         <v>188</v>
       </c>
     </row>
@@ -3790,7 +8470,7 @@
       <c r="C22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D22" t="s" s="309">
+      <c r="D22" t="s" s="951">
         <v>176</v>
       </c>
     </row>
@@ -3804,7 +8484,7 @@
       <c r="C23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D23" t="s" s="311">
+      <c r="D23" t="s" s="953">
         <v>189</v>
       </c>
     </row>
@@ -3818,7 +8498,7 @@
       <c r="C24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D24" t="s" s="313">
+      <c r="D24" t="s" s="955">
         <v>177</v>
       </c>
     </row>
@@ -3832,7 +8512,7 @@
       <c r="C25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D25" t="s" s="315">
+      <c r="D25" t="s" s="957">
         <v>190</v>
       </c>
     </row>
@@ -3846,7 +8526,7 @@
       <c r="C26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s" s="317">
+      <c r="D26" t="s" s="959">
         <v>101</v>
       </c>
     </row>
@@ -3860,7 +8540,7 @@
       <c r="C27" t="s">
         <v>148</v>
       </c>
-      <c r="D27" t="s" s="319">
+      <c r="D27" t="s" s="961">
         <v>191</v>
       </c>
     </row>
@@ -3874,7 +8554,7 @@
       <c r="C28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D28" t="s" s="321">
+      <c r="D28" t="s" s="963">
         <v>192</v>
       </c>
     </row>
@@ -3888,7 +8568,7 @@
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D29" t="s" s="323">
+      <c r="D29" t="s" s="965">
         <v>193</v>
       </c>
     </row>
@@ -3902,7 +8582,7 @@
       <c r="C30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D30" t="s" s="325">
+      <c r="D30" t="s" s="967">
         <v>194</v>
       </c>
     </row>
@@ -3916,7 +8596,7 @@
       <c r="C31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s" s="327">
+      <c r="D31" t="s" s="969">
         <v>195</v>
       </c>
     </row>
@@ -3930,7 +8610,7 @@
       <c r="C32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D32" t="s" s="329">
+      <c r="D32" t="s" s="971">
         <v>196</v>
       </c>
     </row>
@@ -3944,7 +8624,7 @@
       <c r="C33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D33" t="s" s="331">
+      <c r="D33" t="s" s="973">
         <v>197</v>
       </c>
     </row>
@@ -3958,7 +8638,7 @@
       <c r="C34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D34" t="s" s="333">
+      <c r="D34" t="s" s="975">
         <v>198</v>
       </c>
     </row>
@@ -3972,7 +8652,7 @@
       <c r="C35" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D35" t="s" s="335">
+      <c r="D35" t="s" s="977">
         <v>199</v>
       </c>
     </row>
@@ -3986,7 +8666,7 @@
       <c r="C36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D36" t="s" s="337">
+      <c r="D36" t="s" s="979">
         <v>200</v>
       </c>
     </row>
@@ -4000,7 +8680,7 @@
       <c r="C37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D37" t="s" s="339">
+      <c r="D37" t="s" s="981">
         <v>201</v>
       </c>
     </row>
@@ -4014,7 +8694,7 @@
       <c r="C38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s" s="341">
+      <c r="D38" t="s" s="983">
         <v>202</v>
       </c>
     </row>
@@ -4028,7 +8708,7 @@
       <c r="C39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D39" t="s" s="343">
+      <c r="D39" t="s" s="985">
         <v>99</v>
       </c>
     </row>
@@ -4042,7 +8722,7 @@
       <c r="C40" t="s">
         <v>160</v>
       </c>
-      <c r="D40" t="s" s="345">
+      <c r="D40" t="s" s="987">
         <v>97</v>
       </c>
     </row>
@@ -4056,7 +8736,7 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="s" s="347">
+      <c r="D41" t="s" s="989">
         <v>96</v>
       </c>
     </row>
@@ -4070,7 +8750,7 @@
       <c r="C42" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="s" s="349">
+      <c r="D42" t="s" s="991">
         <v>100</v>
       </c>
     </row>
@@ -4084,7 +8764,7 @@
       <c r="C43" t="s">
         <v>163</v>
       </c>
-      <c r="D43" t="s" s="351">
+      <c r="D43" t="s" s="993">
         <v>98</v>
       </c>
     </row>
@@ -4098,7 +8778,7 @@
       <c r="C44" t="s">
         <v>165</v>
       </c>
-      <c r="D44" t="s" s="353">
+      <c r="D44" t="s" s="995">
         <v>166</v>
       </c>
     </row>
@@ -4122,19 +8802,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="215">
+      <c r="A1" t="s" s="996">
         <v>46</v>
       </c>
-      <c r="B1" t="s" s="215">
+      <c r="B1" t="s" s="996">
         <v>47</v>
       </c>
-      <c r="C1" t="s" s="215">
+      <c r="C1" t="s" s="996">
         <v>48</v>
       </c>
-      <c r="D1" t="s" s="215">
+      <c r="D1" t="s" s="996">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="215">
+      <c r="E1" t="s" s="996">
         <v>50</v>
       </c>
     </row>
@@ -4148,7 +8828,7 @@
       <c r="C2" t="n">
         <v>40.4386823941071</v>
       </c>
-      <c r="D2" t="s" s="217">
+      <c r="D2" t="s" s="998">
         <v>203</v>
       </c>
       <c r="E2" t="n">
@@ -4165,7 +8845,7 @@
       <c r="C3" t="n">
         <v>40.4391662510336</v>
       </c>
-      <c r="D3" t="s" s="219">
+      <c r="D3" t="s" s="1000">
         <v>203</v>
       </c>
       <c r="E3" t="n">
@@ -4182,7 +8862,7 @@
       <c r="C4" t="n">
         <v>40.43888003739919</v>
       </c>
-      <c r="D4" t="s" s="221">
+      <c r="D4" t="s" s="1002">
         <v>203</v>
       </c>
       <c r="E4" t="n">
@@ -4199,7 +8879,7 @@
       <c r="C5" t="n">
         <v>40.43941982374081</v>
       </c>
-      <c r="D5" t="s" s="223">
+      <c r="D5" t="s" s="1004">
         <v>203</v>
       </c>
       <c r="E5" t="n">
@@ -4216,7 +8896,7 @@
       <c r="C6" t="n">
         <v>40.43913092455609</v>
       </c>
-      <c r="D6" t="s" s="225">
+      <c r="D6" t="s" s="1006">
         <v>203</v>
       </c>
       <c r="E6" t="n">
@@ -4233,7 +8913,7 @@
       <c r="C7" t="n">
         <v>40.43970249418582</v>
       </c>
-      <c r="D7" t="s" s="227">
+      <c r="D7" t="s" s="1008">
         <v>203</v>
       </c>
       <c r="E7" t="n">
@@ -4250,7 +8930,7 @@
       <c r="C8" t="n">
         <v>40.43942980147376</v>
       </c>
-      <c r="D8" t="s" s="229">
+      <c r="D8" t="s" s="1010">
         <v>203</v>
       </c>
       <c r="E8" t="n">
@@ -4267,7 +8947,7 @@
       <c r="C9" t="n">
         <v>40.43807712811194</v>
       </c>
-      <c r="D9" t="s" s="231">
+      <c r="D9" t="s" s="1012">
         <v>203</v>
       </c>
       <c r="E9" t="n">
@@ -4284,7 +8964,7 @@
       <c r="C10" t="n">
         <v>40.4379720495142</v>
       </c>
-      <c r="D10" t="s" s="233">
+      <c r="D10" t="s" s="1014">
         <v>203</v>
       </c>
       <c r="E10" t="n">
@@ -4301,7 +8981,7 @@
       <c r="C11" t="n">
         <v>40.43870472803021</v>
       </c>
-      <c r="D11" t="s" s="235">
+      <c r="D11" t="s" s="1016">
         <v>203</v>
       </c>
       <c r="E11" t="n">
@@ -4318,7 +8998,7 @@
       <c r="C12" t="n">
         <v>40.43839015311196</v>
       </c>
-      <c r="D12" t="s" s="237">
+      <c r="D12" t="s" s="1018">
         <v>203</v>
       </c>
       <c r="E12" t="n">
@@ -4335,7 +9015,7 @@
       <c r="C13" t="n">
         <v>40.43892367598515</v>
       </c>
-      <c r="D13" t="s" s="239">
+      <c r="D13" t="s" s="1020">
         <v>203</v>
       </c>
       <c r="E13" t="n">
@@ -4352,7 +9032,7 @@
       <c r="C14" t="n">
         <v>40.43878044834054</v>
       </c>
-      <c r="D14" t="s" s="241">
+      <c r="D14" t="s" s="1022">
         <v>203</v>
       </c>
       <c r="E14" t="n">
@@ -4369,7 +9049,7 @@
       <c r="C15" t="n">
         <v>40.43941112195571</v>
       </c>
-      <c r="D15" t="s" s="243">
+      <c r="D15" t="s" s="1024">
         <v>203</v>
       </c>
       <c r="E15" t="n">
@@ -4393,19 +9073,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="244">
+      <c r="A1" t="s" s="1025">
         <v>49</v>
       </c>
-      <c r="B1" t="s" s="244">
+      <c r="B1" t="s" s="1025">
         <v>47</v>
       </c>
-      <c r="C1" t="s" s="244">
+      <c r="C1" t="s" s="1025">
         <v>48</v>
       </c>
-      <c r="D1" t="s" s="244">
+      <c r="D1" t="s" s="1025">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="244">
+      <c r="E1" t="s" s="1025">
         <v>50</v>
       </c>
     </row>
@@ -4419,7 +9099,7 @@
       <c r="C2" t="n">
         <v>40.4393467889175</v>
       </c>
-      <c r="D2" t="s" s="246">
+      <c r="D2" t="s" s="1027">
         <v>229</v>
       </c>
       <c r="E2" t="n">
@@ -4436,7 +9116,7 @@
       <c r="C3" t="n">
         <v>40.438567252730394</v>
       </c>
-      <c r="D3" t="s" s="248">
+      <c r="D3" t="s" s="1029">
         <v>229</v>
       </c>
       <c r="E3" t="n">
@@ -4460,25 +9140,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="249">
+      <c r="A1" t="s" s="1030">
         <v>45</v>
       </c>
-      <c r="B1" t="s" s="249">
+      <c r="B1" t="s" s="1030">
         <v>51</v>
       </c>
-      <c r="C1" t="s" s="249">
+      <c r="C1" t="s" s="1030">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="249">
+      <c r="D1" t="s" s="1030">
         <v>52</v>
       </c>
-      <c r="E1" t="s" s="249">
+      <c r="E1" t="s" s="1030">
         <v>54</v>
       </c>
-      <c r="F1" t="s" s="249">
+      <c r="F1" t="s" s="1030">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="249">
+      <c r="G1" t="s" s="1030">
         <v>50</v>
       </c>
     </row>
@@ -4498,7 +9178,7 @@
       <c r="E2" t="n">
         <v>40.4382851992383</v>
       </c>
-      <c r="F2" t="s" s="251">
+      <c r="F2" t="s" s="1032">
         <v>230</v>
       </c>
       <c r="G2" t="n">
@@ -4521,7 +9201,7 @@
       <c r="E3" t="n">
         <v>40.4396117358136</v>
       </c>
-      <c r="F3" t="s" s="253">
+      <c r="F3" t="s" s="1034">
         <v>230</v>
       </c>
       <c r="G3" t="n">
@@ -4544,7 +9224,7 @@
       <c r="E4" t="n">
         <v>40.4402342202398</v>
       </c>
-      <c r="F4" t="s" s="255">
+      <c r="F4" t="s" s="1036">
         <v>230</v>
       </c>
       <c r="G4" t="n">
@@ -4567,7 +9247,7 @@
       <c r="E5" t="n">
         <v>40.4392560003783</v>
       </c>
-      <c r="F5" t="s" s="257">
+      <c r="F5" t="s" s="1038">
         <v>230</v>
       </c>
       <c r="G5" t="n">
@@ -4590,7 +9270,7 @@
       <c r="E6" t="n">
         <v>40.4389487662111</v>
       </c>
-      <c r="F6" t="s" s="259">
+      <c r="F6" t="s" s="1040">
         <v>230</v>
       </c>
       <c r="G6" t="n">
@@ -4613,7 +9293,7 @@
       <c r="E7" t="n">
         <v>40.4395482704959</v>
       </c>
-      <c r="F7" t="s" s="261">
+      <c r="F7" t="s" s="1042">
         <v>230</v>
       </c>
       <c r="G7" t="n">
@@ -4636,7 +9316,7 @@
       <c r="E8" t="n">
         <v>40.4381612597174</v>
       </c>
-      <c r="F8" t="s" s="263">
+      <c r="F8" t="s" s="1044">
         <v>230</v>
       </c>
       <c r="G8" t="n">
@@ -4659,7 +9339,7 @@
       <c r="E9" t="n">
         <v>40.4376107144972</v>
       </c>
-      <c r="F9" t="s" s="265">
+      <c r="F9" t="s" s="1046">
         <v>230</v>
       </c>
       <c r="G9" t="n">
@@ -4682,7 +9362,7 @@
       <c r="E10" t="n">
         <v>40.438187001592</v>
       </c>
-      <c r="F10" t="s" s="267">
+      <c r="F10" t="s" s="1048">
         <v>230</v>
       </c>
       <c r="G10" t="n">
